--- a/biology/Botanique/Spartocera_batatas/Spartocera_batatas.xlsx
+++ b/biology/Botanique/Spartocera_batatas/Spartocera_batatas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spartocera batatas, la punaise de la patate douce, est une espèce d'insectes hémiptères de la famille des Coreidae, sous-famille des Coreinae, originaire des régions tropicales d'Amérique.
 Ce sont des punaises de grande taille, de 18 à 23 mm de grande taille, de couleur brun foncé. Les plantes-hôtes préférées de ces insectes sont la patate douce et les espèces apparentées, ainsi que certaines Solanaceae. Les adultes et les nymphes se nourrissent de la sève de ces plantes, pouvant provoquer flétrissement et rabougrissement des plantes.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (17 octobre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (17 octobre 2019) :
 Corecoris batatas Barber, 192
 Coreus gigas Fabricius, 1803
 Lygaeus batatas Fabricius, 1798
